--- a/medicine/Enfance/Alice_et_le_Flibustier/Alice_et_le_Flibustier.xlsx
+++ b/medicine/Enfance/Alice_et_le_Flibustier/Alice_et_le_Flibustier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et le Flibustier (titre original : The Haunted Showboat, littéralement : Le Bateau à aubes hanté) est le trente-cinquième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams. 
+Alice et le Flibustier (titre original : The Haunted Showboat, littéralement : Le Bateau à aubes hanté) est le trente-cinquième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams. 
 Aux États-Unis, le roman a été publié pour la première fois en 1957 par Grosset &amp; Dunlap, New York. En France, il est paru pour la première fois en 1964 chez Hachette Jeunesse dans la collection « Bibliothèque verte » sous le no 250. Il n'a plus été réédité en France depuis 2002.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1964 en langue française.
 Alice est invitée par ses amies Bess et Marion à La Nouvelle-Orléans, ville très touristique de Louisiane, chez leur oncle Douglas. 
@@ -549,9 +563,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, jeune détective amateur blonde, fille de James Roy, orpheline de mère.
-James Roy, avoué[2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, jeune détective amateur blonde, fille de James Roy, orpheline de mère.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
@@ -559,9 +578,43 @@
 Bob Eddleton, ami et chevalier servant de Marion, camarade d'université de Ned.
 Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
 M. Stevenson, commissaire de River City, ami d'Alice.
-Togo, petit chien fox-terrier d'Alice.
-Personnages spécifiques à ce roman
-Douglas, l'oncle de Bess et de Marion.
+Togo, petit chien fox-terrier d'Alice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_le_Flibustier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_le_Flibustier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Douglas, l'oncle de Bess et de Marion.
 Stella, épouse de Douglas, tante de Bess et de Marion.
 Dora (Donna Mae en VO), fille des Douglas.
 Charles Bartolomé, ancien fiancé de Dora.
@@ -575,31 +628,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alice_et_le_Flibustier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_le_Flibustier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Note : Toutes les éditions ont paru aux éditions Hachette.
 1964 : Alice et le Flibustier — coll. « Bibliothèque verte » no 250, cartonné (français, version originale). Illustré par Albert Chazelle. Traduit par Anne Joba. 20 chapitres. 248 p. 
@@ -607,7 +662,7 @@
 1984 : Alice et le Flibustier — coll. « Masque Jeunesse » no 33, souple (français, version abrégée). Illustré par Jean Sidobre.
 1988 : Alice et le Flibustier — coll. « Bibliothèque verte » no 457, souple (français, version abrégée). Illustré par Jean Sidobre.
 1992 : Alice et le Flibustier — coll. « Bibliothèque verte » no 457, souple (français, version abrégée). Couverture de Philippe Daure, illustrations intérieures de Jean Sidobre.
-2001 : Alice et le Flibustier — coll. « Bibliothèque verte »[3] no 457, souple (français, version abrégée). Couverture de Philippe Daure, illustrations intérieures de Philippe Daure.</t>
+2001 : Alice et le Flibustier — coll. « Bibliothèque verte » no 457, souple (français, version abrégée). Couverture de Philippe Daure, illustrations intérieures de Philippe Daure.</t>
         </is>
       </c>
     </row>
